--- a/database/meta/jupyter_tags.xlsx
+++ b/database/meta/jupyter_tags.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="k-tutorial" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="j-jupyter" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t xml:space="preserve">k</t>
+    <t xml:space="preserve">j</t>
   </si>
   <si>
     <t xml:space="preserve">slug</t>
@@ -31,10 +31,10 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">tk1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gis-a</t>
+    <t xml:space="preserve">tj1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jgis-a</t>
   </si>
   <si>
     <t xml:space="preserve">Scientific computing model</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">t01</t>
   </si>
   <si>
-    <t xml:space="preserve">kgis_general</t>
+    <t xml:space="preserve">jgis_general</t>
   </si>
   <si>
     <t xml:space="preserve">Python basic</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">t02</t>
   </si>
   <si>
-    <t xml:space="preserve">kgis_python</t>
+    <t xml:space="preserve">jgis_python</t>
   </si>
   <si>
     <t xml:space="preserve">Python data science</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">t03</t>
   </si>
   <si>
-    <t xml:space="preserve">kgis_r</t>
+    <t xml:space="preserve">jgis_r</t>
   </si>
   <si>
     <t xml:space="preserve">R Language</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">t04</t>
   </si>
   <si>
-    <t xml:space="preserve">kgis_rs</t>
+    <t xml:space="preserve">jgis_rs</t>
   </si>
   <si>
     <t xml:space="preserve">Remote sence</t>
@@ -83,11 +83,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <name val="文泉驿正黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,21 +106,17 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="文泉驿正黑"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="文泉驿正黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="文泉驿正黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -140,6 +137,7 @@
       <color rgb="FF900800"/>
       <name val="文泉驿正黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -153,6 +151,7 @@
       <color rgb="FF313739"/>
       <name val="文泉驿正黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -229,7 +228,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,47 +238,47 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,20 +363,21 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="2" width="8.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -401,7 +401,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -443,7 +443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>12</v>
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>15</v>
@@ -529,8 +529,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
